--- a/사전과제_API_규격서_v1.0_20200302.xlsx
+++ b/사전과제_API_규격서_v1.0_20200302.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="345" windowWidth="13755" windowHeight="7335" activeTab="8"/>
+    <workbookView xWindow="720" yWindow="348" windowWidth="13752" windowHeight="7332" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="개정내용" sheetId="1" r:id="rId1"/>
-    <sheet name="전역(표준)규격" sheetId="3" r:id="rId2"/>
+    <sheet name="요구사항" sheetId="3" r:id="rId2"/>
     <sheet name="목차" sheetId="2" r:id="rId3"/>
     <sheet name="1" sheetId="4" r:id="rId4"/>
     <sheet name="2" sheetId="5" r:id="rId5"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="67">
   <si>
     <t>개정 내역</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,26 +145,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>화면당 row 개수, default = 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이지 번호, default=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>게시물 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rslt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결과 값(0:성공, 1:실패)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>첨부파일 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,23 +185,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>board/list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>board/view</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>board/mod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>board/del</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>board/file</t>
+    <t>board_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board/{board_id}/view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board/{board_id}/mod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board/{board_id}/del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>board/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{board_id}/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>file</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -225,39 +253,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>row_cnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>board_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>board_title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>board_dtm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>board_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>file_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rslt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>file</t>
+    <t>add_dtm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_dtm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mod_dtm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물 수정일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mod_dtm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물 작성 날짜 기준으로 최신 정렬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스트 조회, 상세 조회, 수정, 삭제, 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수 요구사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택 요구사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>django-rest-framework 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물 ID, 게시물 제목, 게시물 내용, 게시물 작성날짜 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>README.md 를 통한 과제 피드백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API 를 서버에 배포하여 접근 가능하도록 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 권한 적용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -265,7 +313,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,8 +380,17 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,6 +406,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,14 +462,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -438,6 +497,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -748,38 +814,38 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.25" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.4">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="4">
         <v>43892</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -794,14 +860,74 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A9:F9"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -811,118 +937,116 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14" style="11" customWidth="1"/>
-    <col min="2" max="2" width="24.625" customWidth="1"/>
-    <col min="3" max="3" width="22.25" customWidth="1"/>
-    <col min="4" max="4" width="35.125" customWidth="1"/>
+    <col min="1" max="1" width="14" style="9" customWidth="1"/>
+    <col min="2" max="2" width="24.59765625" customWidth="1"/>
+    <col min="3" max="3" width="22.19921875" customWidth="1"/>
+    <col min="4" max="4" width="35.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="8" t="str">
+      <c r="C3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="6" t="str">
         <f>HYPERLINK("#'"&amp;A3&amp;"'!A3",IF(B2="",B2,B3))</f>
         <v>게시판 목록 조회</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="8" t="str">
+      <c r="C4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="6" t="str">
         <f t="shared" ref="D4:D7" si="0">HYPERLINK("#'"&amp;A4&amp;"'!A3",IF(B3="",B3,B4))</f>
         <v>게시판 상세 조회</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="8" t="str">
+      <c r="C5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>게시판 내용 수정</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="8" t="str">
+      <c r="C6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>게시판 삭제</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="8" t="str">
+      <c r="C7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>게시판 첨부파일 다운로드</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="8" t="str">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="6" t="str">
         <f t="shared" ref="D8" si="1">HYPERLINK("#'"&amp;A8&amp;"'!A3",IF(B7="",B7,B8))</f>
         <v>게시판 등록</v>
       </c>
@@ -930,24 +1054,25 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A1" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,LEN(CELL("filename",A1)))</f>
         <v>1</v>
@@ -956,132 +1081,120 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+    </row>
+    <row r="4" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="5" t="s">
+    <row r="7" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1095,19 +1208,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A1" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,LEN(CELL("filename",A1)))</f>
         <v>2</v>
@@ -1116,144 +1229,156 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+    </row>
+    <row r="4" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="5" t="s">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5" t="s">
-        <v>37</v>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1267,20 +1392,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A1" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,LEN(CELL("filename",A1)))</f>
         <v>3</v>
@@ -1289,142 +1414,132 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+    </row>
+    <row r="4" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="5" t="s">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="12" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1438,19 +1553,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z10"/>
+  <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A1" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,LEN(CELL("filename",A1)))</f>
         <v>4</v>
@@ -1459,94 +1574,84 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+    </row>
+    <row r="4" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="12" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1563,17 +1668,17 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.19921875" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A1" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,LEN(CELL("filename",A1)))</f>
         <v>5</v>
@@ -1582,96 +1687,96 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+    </row>
+    <row r="4" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>39</v>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1685,152 +1790,142 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.19921875" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A1" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,LEN(CELL("filename",A1)))</f>
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+    </row>
+    <row r="4" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="12" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
